--- a/Concept/RACI.xlsx
+++ b/Concept/RACI.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mostafa Abdel Hamid\Desktop\workshop utomtion\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\ITI\QA project Team A\Concept\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D34FED13-BF9D-442D-A12A-D9F8F4CD9803}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{27EFA5E0-E7D6-5D4D-8CEE-08069EDD2909}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11316"/>
   </bookViews>
   <sheets>
     <sheet name="RACI Matrix Template" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -61,12 +60,6 @@
   </si>
   <si>
     <t>RACI Matrix Template</t>
-  </si>
-  <si>
-    <t>osama</t>
-  </si>
-  <si>
-    <t>Mostafa</t>
   </si>
   <si>
     <t>Aya</t>
@@ -149,11 +142,17 @@
   <si>
     <t>P/A</t>
   </si>
+  <si>
+    <t>Saad</t>
+  </si>
+  <si>
+    <t>Yara</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="7">
     <font>
       <sz val="12"/>
@@ -426,7 +425,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{8A6A3670-E6B1-F34E-8B52-21C7B8707DE9}"/>
+    <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="33">
     <dxf>
@@ -983,26 +982,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{599D4CE9-55E4-964F-A6F0-0E297560449F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="0"/>
   </sheetPr>
   <dimension ref="A1:UO30"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="5.875" customWidth="1"/>
-    <col min="2" max="2" width="35.875" customWidth="1"/>
-    <col min="3" max="9" width="20.875" customWidth="1"/>
-    <col min="10" max="12" width="18.875" customWidth="1"/>
+    <col min="1" max="1" width="5.8984375" customWidth="1"/>
+    <col min="2" max="2" width="35.8984375" customWidth="1"/>
+    <col min="3" max="9" width="20.8984375" customWidth="1"/>
+    <col min="10" max="12" width="18.8984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:561" ht="21" customHeight="1"/>
-    <row r="2" spans="1:561" ht="24.95" customHeight="1"/>
+    <row r="2" spans="1:561" ht="24.9" customHeight="1"/>
     <row r="3" spans="1:561" ht="35.1" customHeight="1">
       <c r="B3" s="5" t="s">
         <v>9</v>
@@ -1013,31 +1012,31 @@
       <c r="B4" s="5"/>
       <c r="C4" s="2"/>
     </row>
-    <row r="5" spans="1:561" s="3" customFormat="1" ht="39.950000000000003" customHeight="1">
+    <row r="5" spans="1:561" s="3" customFormat="1" ht="39.9" customHeight="1">
       <c r="A5"/>
       <c r="B5" s="8" t="s">
         <v>1</v>
       </c>
       <c r="C5" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="E5" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="F5" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="G5" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" s="11" t="s">
-        <v>14</v>
-      </c>
       <c r="H5" s="11" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I5" s="11" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="J5"/>
       <c r="K5"/>
@@ -2157,31 +2156,31 @@
       <c r="UN6"/>
       <c r="UO6"/>
     </row>
-    <row r="7" spans="1:561" s="4" customFormat="1" ht="24.95" customHeight="1">
+    <row r="7" spans="1:561" s="4" customFormat="1" ht="24.9" customHeight="1">
       <c r="A7"/>
       <c r="B7" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C7" s="28" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>2</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H7" s="29" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I7" s="29" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="J7"/>
       <c r="K7"/>
@@ -3301,19 +3300,19 @@
       <c r="UN8"/>
       <c r="UO8"/>
     </row>
-    <row r="9" spans="1:561" s="4" customFormat="1" ht="24.95" customHeight="1">
+    <row r="9" spans="1:561" s="4" customFormat="1" ht="24.9" customHeight="1">
       <c r="A9"/>
       <c r="B9" s="6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E9" s="21" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
@@ -3875,7 +3874,7 @@
     <row r="10" spans="1:561" s="4" customFormat="1" ht="30" customHeight="1">
       <c r="A10"/>
       <c r="B10" s="12" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C10" s="15"/>
       <c r="D10" s="15"/>
@@ -4437,22 +4436,22 @@
       <c r="UN10"/>
       <c r="UO10"/>
     </row>
-    <row r="11" spans="1:561" s="4" customFormat="1" ht="24.95" customHeight="1">
+    <row r="11" spans="1:561" s="4" customFormat="1" ht="24.9" customHeight="1">
       <c r="A11"/>
       <c r="B11" s="6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D11" s="22" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F11" s="20" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G11" s="21"/>
       <c r="H11" s="29" t="s">
@@ -5577,13 +5576,13 @@
       <c r="UN12"/>
       <c r="UO12"/>
     </row>
-    <row r="13" spans="1:561" s="4" customFormat="1" ht="24.95" customHeight="1">
+    <row r="13" spans="1:561" s="4" customFormat="1" ht="24.9" customHeight="1">
       <c r="A13"/>
       <c r="B13" s="6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C13" s="22" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
@@ -6149,7 +6148,7 @@
     <row r="14" spans="1:561" s="4" customFormat="1" ht="30" customHeight="1">
       <c r="A14"/>
       <c r="B14" s="12" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C14" s="15"/>
       <c r="D14" s="15"/>
@@ -6711,19 +6710,19 @@
       <c r="UN14"/>
       <c r="UO14"/>
     </row>
-    <row r="15" spans="1:561" s="4" customFormat="1" ht="24.95" customHeight="1">
+    <row r="15" spans="1:561" s="4" customFormat="1" ht="24.9" customHeight="1">
       <c r="A15"/>
       <c r="B15" s="6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C15" s="22" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F15" s="7"/>
       <c r="G15" s="21"/>
@@ -7284,19 +7283,19 @@
       <c r="UN15"/>
       <c r="UO15"/>
     </row>
-    <row r="16" spans="1:561" s="4" customFormat="1" ht="24.95" customHeight="1">
+    <row r="16" spans="1:561" s="4" customFormat="1" ht="24.9" customHeight="1">
       <c r="A16"/>
       <c r="B16" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="D16" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C16" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="D16" s="7" t="s">
+      <c r="E16" s="7" t="s">
         <v>33</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>35</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>2</v>
@@ -7860,7 +7859,7 @@
     <row r="17" spans="1:561" s="4" customFormat="1" ht="30" customHeight="1">
       <c r="A17"/>
       <c r="B17" s="12" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C17" s="15"/>
       <c r="D17" s="15"/>
@@ -8422,26 +8421,26 @@
       <c r="UN17"/>
       <c r="UO17"/>
     </row>
-    <row r="18" spans="1:561" s="4" customFormat="1" ht="24.95" customHeight="1">
+    <row r="18" spans="1:561" s="4" customFormat="1" ht="24.9" customHeight="1">
       <c r="A18"/>
       <c r="B18" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C18" s="22" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>2</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G18" s="21"/>
       <c r="H18" s="21" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I18" s="21"/>
       <c r="J18"/>
@@ -8997,26 +8996,26 @@
       <c r="UN18"/>
       <c r="UO18"/>
     </row>
-    <row r="19" spans="1:561" s="4" customFormat="1" ht="24.95" customHeight="1">
+    <row r="19" spans="1:561" s="4" customFormat="1" ht="24.9" customHeight="1">
       <c r="A19"/>
       <c r="B19" s="6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C19" s="22" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>2</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G19" s="21"/>
       <c r="H19" s="21" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I19" s="21"/>
       <c r="J19"/>
@@ -9575,7 +9574,7 @@
     <row r="20" spans="1:561" s="4" customFormat="1" ht="30" customHeight="1">
       <c r="A20"/>
       <c r="B20" s="12" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C20" s="30"/>
       <c r="D20" s="15"/>
@@ -10137,26 +10136,26 @@
       <c r="UN20"/>
       <c r="UO20"/>
     </row>
-    <row r="21" spans="1:561" s="4" customFormat="1" ht="24.95" customHeight="1">
+    <row r="21" spans="1:561" s="4" customFormat="1" ht="24.9" customHeight="1">
       <c r="A21"/>
       <c r="B21" s="6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C21" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="D21" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D21" s="7" t="s">
-        <v>36</v>
-      </c>
       <c r="E21" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G21" s="21"/>
       <c r="H21" s="21" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I21" s="21"/>
       <c r="J21"/>
@@ -10712,26 +10711,26 @@
       <c r="UN21"/>
       <c r="UO21"/>
     </row>
-    <row r="22" spans="1:561" s="4" customFormat="1" ht="24.95" customHeight="1">
+    <row r="22" spans="1:561" s="4" customFormat="1" ht="24.9" customHeight="1">
       <c r="A22"/>
       <c r="B22" s="6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C22" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="D22" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D22" s="7" t="s">
-        <v>36</v>
-      </c>
       <c r="E22" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G22" s="21"/>
       <c r="H22" s="21" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I22" s="21"/>
       <c r="J22"/>
@@ -11287,26 +11286,26 @@
       <c r="UN22"/>
       <c r="UO22"/>
     </row>
-    <row r="23" spans="1:561" s="4" customFormat="1" ht="24.95" customHeight="1">
+    <row r="23" spans="1:561" s="4" customFormat="1" ht="24.9" customHeight="1">
       <c r="A23"/>
       <c r="B23" s="6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C23" s="22" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G23" s="21"/>
       <c r="H23" s="21" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I23" s="21"/>
       <c r="J23"/>
@@ -11862,26 +11861,26 @@
       <c r="UN23"/>
       <c r="UO23"/>
     </row>
-    <row r="24" spans="1:561" s="4" customFormat="1" ht="24.95" customHeight="1">
+    <row r="24" spans="1:561" s="4" customFormat="1" ht="24.9" customHeight="1">
       <c r="A24"/>
       <c r="B24" s="6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C24" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="D24" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D24" s="7" t="s">
-        <v>36</v>
-      </c>
       <c r="E24" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G24" s="21"/>
       <c r="H24" s="21" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24"/>
@@ -12437,7 +12436,7 @@
       <c r="UN24"/>
       <c r="UO24"/>
     </row>
-    <row r="25" spans="1:561" s="27" customFormat="1" ht="24.95" customHeight="1">
+    <row r="25" spans="1:561" s="27" customFormat="1" ht="24.9" customHeight="1">
       <c r="A25"/>
       <c r="B25" s="23"/>
       <c r="C25" s="24"/>
